--- a/DataFolder/ExcelFiles/Product groups/Бытовая техника/Сушильные машины.xlsx
+++ b/DataFolder/ExcelFiles/Product groups/Бытовая техника/Сушильные машины.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smeg\Desktop\Excel для SiteWrok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Projects\SiteWork\DataFolder\ExcelFiles\Product groups\Бытовая техника\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -141,9 +141,6 @@
     <t>Сушильная машина Asko T884XL HP</t>
   </si>
   <si>
-    <t>T884XL HP</t>
-  </si>
-  <si>
     <t>Сушильная машина Miele TMG640WP</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>Сушильная машина Asko T794C W</t>
   </si>
   <si>
-    <t>T794C W</t>
-  </si>
-  <si>
     <t>Сушильная машина Miele TMB640WP</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
     <t>Сушильная машина Asko T754C W</t>
   </si>
   <si>
-    <t>T754C W</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -219,15 +210,9 @@
     <t>Сушильная машина Asko T754HP W</t>
   </si>
   <si>
-    <t>T754HP W</t>
-  </si>
-  <si>
     <t>Сушильная машина Asko TDC112V G</t>
   </si>
   <si>
-    <t>TDC112V G</t>
-  </si>
-  <si>
     <t>Сушильная машина Miele TKB640WP</t>
   </si>
   <si>
@@ -237,27 +222,12 @@
     <t>Сушильная машина Asko T794C S</t>
   </si>
   <si>
-    <t>T794C S</t>
-  </si>
-  <si>
     <t>Сушильная машина Asko T784HP W</t>
   </si>
   <si>
-    <t>T784HP W</t>
-  </si>
-  <si>
-    <t>Сушильная машина Miele TDA140С</t>
-  </si>
-  <si>
-    <t>TDA140С</t>
-  </si>
-  <si>
     <t>Сушильная машина Asko TDC112C G</t>
   </si>
   <si>
-    <t>TDC112C G</t>
-  </si>
-  <si>
     <t>Сушильная машина Miele TKG640WP</t>
   </si>
   <si>
@@ -267,9 +237,6 @@
     <t>Сушильная машина Asko T784C W</t>
   </si>
   <si>
-    <t>T784C W</t>
-  </si>
-  <si>
     <t>кнопочное</t>
   </si>
   <si>
@@ -286,6 +253,39 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>T884XLHP</t>
+  </si>
+  <si>
+    <t>T794CW</t>
+  </si>
+  <si>
+    <t>T754CW</t>
+  </si>
+  <si>
+    <t>T754HPW</t>
+  </si>
+  <si>
+    <t>TDC112VG</t>
+  </si>
+  <si>
+    <t>T794CS</t>
+  </si>
+  <si>
+    <t>T784HPW</t>
+  </si>
+  <si>
+    <t>TDC112CG</t>
+  </si>
+  <si>
+    <t>T784CW</t>
+  </si>
+  <si>
+    <t>TDA140C</t>
+  </si>
+  <si>
+    <t>Сушильная машина Miele TDA140C</t>
   </si>
 </sst>
 </file>
@@ -937,16 +937,7 @@
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1307,7 +1298,7 @@
         <v>11</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>7</v>
@@ -1344,7 +1335,7 @@
         <v>35</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J2" s="5">
         <v>9</v>
@@ -1381,16 +1372,16 @@
         <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J3" s="2">
         <v>7</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>31</v>
@@ -1424,7 +1415,7 @@
         <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J4" s="2">
         <v>7</v>
@@ -1433,7 +1424,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>15</v>
@@ -1444,7 +1435,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>38</v>
@@ -1484,10 +1475,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1504,16 +1495,16 @@
         <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J6" s="2">
         <v>8</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>15</v>
@@ -1524,10 +1515,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -1541,10 +1532,10 @@
         <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J7" s="2">
         <v>7</v>
@@ -1564,10 +1555,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -1584,16 +1575,16 @@
         <v>35</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J8" s="2">
         <v>9</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>15</v>
@@ -1604,10 +1595,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>28</v>
@@ -1621,16 +1612,16 @@
         <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J9" s="2">
         <v>10</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>31</v>
@@ -1644,10 +1635,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -1664,16 +1655,16 @@
         <v>35</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J10" s="2">
         <v>8</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>15</v>
@@ -1684,10 +1675,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -1701,10 +1692,10 @@
         <v>14</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J11" s="2">
         <v>7</v>
@@ -1713,7 +1704,7 @@
         <v>16</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>15</v>
@@ -1724,10 +1715,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -1744,7 +1735,7 @@
         <v>35</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J12" s="2">
         <v>9</v>
@@ -1764,10 +1755,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -1784,7 +1775,7 @@
         <v>35</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J13" s="2">
         <v>8</v>
@@ -1793,7 +1784,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>15</v>
@@ -1804,10 +1795,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
@@ -1821,16 +1812,16 @@
         <v>30</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J14" s="2">
         <v>7</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>31</v>
@@ -1844,10 +1835,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -1861,10 +1852,10 @@
         <v>14</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J15" s="2">
         <v>9</v>
@@ -1873,7 +1864,7 @@
         <v>16</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>23</v>
@@ -1884,10 +1875,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -1913,7 +1904,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>15</v>
@@ -1924,10 +1915,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>28</v>
@@ -1941,16 +1932,16 @@
         <v>30</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J17" s="2">
         <v>7</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>31</v>
@@ -1964,10 +1955,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
@@ -1984,7 +1975,7 @@
         <v>35</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J18" s="2">
         <v>8</v>
@@ -1993,7 +1984,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>15</v>
@@ -2004,10 +1995,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
@@ -2021,10 +2012,10 @@
         <v>30</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J19" s="2">
         <v>7</v>
@@ -2044,10 +2035,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
@@ -2064,7 +2055,7 @@
         <v>35</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="J20" s="2">
         <v>7</v>
@@ -2084,10 +2075,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -2101,22 +2092,22 @@
         <v>14</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J21" s="2">
         <v>7</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>19</v>
@@ -2124,10 +2115,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>28</v>
@@ -2141,16 +2132,16 @@
         <v>30</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J22" s="2">
         <v>7</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>31</v>
@@ -2164,10 +2155,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
@@ -2184,7 +2175,7 @@
         <v>35</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J23" s="2">
         <v>8</v>
@@ -2193,7 +2184,7 @@
         <v>16</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>15</v>
@@ -2204,10 +2195,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -2221,10 +2212,10 @@
         <v>14</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J24" s="2">
         <v>7</v>
